--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0074F55-4911-E443-935C-A8748463D9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5241D-4034-D143-820E-D6CB8C5B70B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="8780" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,6 +709,12 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -722,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,10 +746,10 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -758,10 +764,10 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -771,12 +777,6 @@
       </c>
       <c r="B13" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2026 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5241D-4034-D143-820E-D6CB8C5B70B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B4214A-36D7-D549-B442-26B8176A9F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="8780" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="4900" yWindow="5100" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>NO CLASS - Spring Break</t>
+  </si>
+  <si>
+    <t>/slides/01-Intro_to_Course.html</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,6 +604,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B4214A-36D7-D549-B442-26B8176A9F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FE2F8-7C70-514C-9B36-8EC5955589E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="5100" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1480" yWindow="4680" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>/slides/01-Intro_to_Course.html</t>
+  </si>
+  <si>
+    <t>/slides/02-Summarizing_Data.html</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,6 +628,9 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/Dropbox (Personal)/School/Teaching/DAV5300 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FE2F8-7C70-514C-9B36-8EC5955589E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CAEC9C-008C-C14A-B68F-760B36E32632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="4680" windowWidth="25340" windowHeight="14540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
